--- a/sql/metadatTable.xlsx
+++ b/sql/metadatTable.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/StinkyBootsLLC/TenantPortal/sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1BCE74-07CC-E54E-ABDB-30331F7C9BE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5951E9-FD7A-5843-91D1-1EEBE5755874}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="25460" windowHeight="14560" xr2:uid="{34771648-0E76-B448-A19E-FDE1EED5C943}"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="25460" windowHeight="14560" activeTab="1" xr2:uid="{34771648-0E76-B448-A19E-FDE1EED5C943}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Tables" sheetId="1" r:id="rId1"/>
+    <sheet name="Dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -26,7 +26,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="114">
+  <si>
+    <t>NOT NULL,</t>
+  </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -37,30 +40,9 @@
     <t>FK</t>
   </si>
   <si>
-    <t>MovieID_FK</t>
-  </si>
-  <si>
     <t>NOT NULL</t>
   </si>
   <si>
-    <t>Table Directors</t>
-  </si>
-  <si>
-    <t>DirectorID</t>
-  </si>
-  <si>
-    <t>DirectorName</t>
-  </si>
-  <si>
-    <t>NUMBER(38)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(30)</t>
-  </si>
-  <si>
-    <t>ActorID_FK</t>
-  </si>
-  <si>
     <t>Column Name</t>
   </si>
   <si>
@@ -76,12 +58,6 @@
     <t>Key Value</t>
   </si>
   <si>
-    <t>Table Performs</t>
-  </si>
-  <si>
-    <t>PerformsID</t>
-  </si>
-  <si>
     <t>References</t>
   </si>
   <si>
@@ -94,6 +70,9 @@
     <t xml:space="preserve">Apt_State </t>
   </si>
   <si>
+    <t>DECIMAL(5,2),</t>
+  </si>
+  <si>
     <t xml:space="preserve">int(3) </t>
   </si>
   <si>
@@ -181,42 +160,6 @@
     <t>Table TenantMaintIssues</t>
   </si>
   <si>
-    <t xml:space="preserve"> TenantMaintIssue_ID int(6) NOT NULL AUTO_INCREMENT PRIMARY KEY,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    IssueReportDate DATE,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    IssuePriority varchar(10),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    IssueStatus varchar (10),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    IssueDescription varchar (100) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    IssueSolution varchar(100),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    IssueRepairDate DATE,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ScheduledDate DATE,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    IssueRepairPrice DECIMAL(5,2),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Tenant_FK int(3),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Tenant_Apt_FK int(3),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Constraint Foreign Key (Tenant_FK) references Tenants(Tenant_ID),</t>
-  </si>
-  <si>
     <t>Constraint Foreign Key (Tenant_Apt_FK) references Tenants(Tenant_ID)</t>
   </si>
   <si>
@@ -257,6 +200,174 @@
   </si>
   <si>
     <t>TenantAptNum_FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssueReportDate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(6) </t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TenantMaintIssue_ID</t>
+  </si>
+  <si>
+    <t>varchar(10),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar (100) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssuePriority </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssueStatus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssueDescription </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssueSolution </t>
+  </si>
+  <si>
+    <t>IssueRepairDate</t>
+  </si>
+  <si>
+    <t>ScheduledDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssueRepairPrice </t>
+  </si>
+  <si>
+    <t>Tenant_FK</t>
+  </si>
+  <si>
+    <t>Tenant_Apt_FK</t>
+  </si>
+  <si>
+    <t>Constraint Foreign Key (Tenant_FK) references Tenants(Tenant_ID),</t>
+  </si>
+  <si>
+    <t>Table TenantProfiles</t>
+  </si>
+  <si>
+    <t>Constraint Foreign Key (TenantSecQues1_FK) references TenantSecQuestions(secQues_ID ),</t>
+  </si>
+  <si>
+    <t>Constraint Foreign Key (TenantSecQues2_FK) references TenantSecQuestions(secQues_ID ),</t>
+  </si>
+  <si>
+    <t>varchar(55)</t>
+  </si>
+  <si>
+    <t>TenantProfile_ID</t>
+  </si>
+  <si>
+    <t>Constraint Foreign Key (TenantSecQues3_FK) references TenantSecQuestions(secQues_ID )</t>
+  </si>
+  <si>
+    <t>TenantSecQues1_FK</t>
+  </si>
+  <si>
+    <t>TenantSecAns1</t>
+  </si>
+  <si>
+    <t>TenantSecQues2_FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TenantSecAns2 </t>
+  </si>
+  <si>
+    <t>TenantSecQues3_FK</t>
+  </si>
+  <si>
+    <t>TenantSecAns3</t>
+  </si>
+  <si>
+    <t>Table Maintainers</t>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+  </si>
+  <si>
+    <t>MaintainerNumber</t>
+  </si>
+  <si>
+    <t>MaintainerLastName</t>
+  </si>
+  <si>
+    <t>MaintainerFirstName</t>
+  </si>
+  <si>
+    <t>MaintainertPassword</t>
+  </si>
+  <si>
+    <t>MaintainerEmail</t>
+  </si>
+  <si>
+    <t>Maintainer_ID</t>
+  </si>
+  <si>
+    <t>Constraint Foreign Key (MaintainerSecQues1_FK) references TenantSecQuestions(secQues_ID ),</t>
+  </si>
+  <si>
+    <t>Constraint Foreign Key (MaintainerSecQues2_FK) references TenantSecQuestions(secQues_ID ),</t>
+  </si>
+  <si>
+    <t>Table MaintainerProfiles</t>
+  </si>
+  <si>
+    <t>MaintainerProfile_ID</t>
+  </si>
+  <si>
+    <t>Maintainer_FK</t>
+  </si>
+  <si>
+    <t>MaintainerSecQues1_FK</t>
+  </si>
+  <si>
+    <t>MaintainerSecAns1</t>
+  </si>
+  <si>
+    <t>MaintainerSecQues2_FK</t>
+  </si>
+  <si>
+    <t>MaintainerSecAns2</t>
+  </si>
+  <si>
+    <t>MaintainerSecQues3_FK</t>
+  </si>
+  <si>
+    <t>MaintainerSecAns3</t>
+  </si>
+  <si>
+    <t>Constraint Foreign Key (Maintainer_FK) references Maintainers(Maintainer_ID),</t>
+  </si>
+  <si>
+    <t>Constraint Foreign Key (MaintainerSecQues3_FK) references TenantSecQuestions(secQues_ID )</t>
+  </si>
+  <si>
+    <t>Apartments</t>
+  </si>
+  <si>
+    <t>Tenants</t>
+  </si>
+  <si>
+    <t>TenantSecQuestions</t>
+  </si>
+  <si>
+    <t>TenantMaintIssues</t>
+  </si>
+  <si>
+    <t>TenantProfiles</t>
+  </si>
+  <si>
+    <t>Maintainers</t>
+  </si>
+  <si>
+    <t>MaintainerProfiles</t>
   </si>
 </sst>
 </file>
@@ -292,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,12 +414,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFD9E1F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -432,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,23 +572,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -513,15 +603,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,6 +646,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0EF07-04B9-C94C-8ED8-72DC9C1EF1F5}">
-  <dimension ref="B2:E64"/>
+  <dimension ref="B2:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A74" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1056,125 +1152,125 @@
     <col min="2" max="2" width="5" style="6" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="8"/>
-      <c r="C2" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
-      <c r="C11" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="C11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>4</v>
@@ -1183,10 +1279,10 @@
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>4</v>
@@ -1195,10 +1291,10 @@
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>4</v>
@@ -1207,10 +1303,10 @@
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>4</v>
@@ -1219,174 +1315,174 @@
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="23"/>
+        <v>36</v>
+      </c>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="23"/>
+        <v>36</v>
+      </c>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="23"/>
+        <v>36</v>
+      </c>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="23"/>
+        <v>36</v>
+      </c>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="23"/>
+        <v>36</v>
+      </c>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="37"/>
-      <c r="C26" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="37"/>
-      <c r="C27" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="40"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="37"/>
-      <c r="C28" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="40"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="37"/>
-      <c r="C29" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="42"/>
-      <c r="C30" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="8"/>
-      <c r="C32" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="C32" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>4</v>
@@ -1394,243 +1490,532 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="8"/>
-      <c r="C36" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="C36" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="4" t="s">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="E38" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="10"/>
-      <c r="C39" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="24"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="10"/>
-      <c r="C40" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="24"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="10"/>
-      <c r="C41" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="24"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="10"/>
-      <c r="C42" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="24"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="18"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="10"/>
-      <c r="C43" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="24"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="18"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="10"/>
-      <c r="C44" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="24"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="18"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="10"/>
-      <c r="C45" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="24"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="10"/>
-      <c r="C46" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="24"/>
+      <c r="B46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="10"/>
-      <c r="C47" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="24"/>
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="18"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="10"/>
-      <c r="C48" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="E48" s="28"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="10"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="24"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="10"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="24"/>
+      <c r="C50" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="10"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="24"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="10"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="24"/>
+      <c r="B52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="10"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="24"/>
+      <c r="B53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="10"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="24"/>
+      <c r="B54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="10"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="24"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C56" s="2" t="s">
-        <v>0</v>
+      <c r="B56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="8"/>
-      <c r="C57" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="5"/>
       <c r="C59" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="25"/>
+      <c r="C60" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="38"/>
+      <c r="E60" s="28"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="8"/>
-      <c r="C61" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="33"/>
+      <c r="E61" s="32"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B62" s="29"/>
+      <c r="C62" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="33"/>
+      <c r="E62" s="32"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="34"/>
+      <c r="C63" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="39"/>
+      <c r="E63" s="37"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="8"/>
+      <c r="C65" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="5" t="s">
+      <c r="C66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="5"/>
+      <c r="C67" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="5"/>
+      <c r="C68" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="5"/>
+      <c r="C69" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="5"/>
+      <c r="C70" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="5"/>
+      <c r="C71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="18"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="8"/>
+      <c r="C73" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C74" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="C75" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="5"/>
+      <c r="C77" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="5"/>
+      <c r="C79" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="5"/>
+      <c r="C81" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="25"/>
+      <c r="C82" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" s="42"/>
+      <c r="E82" s="28"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="29"/>
+      <c r="C83" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="33"/>
+      <c r="E83" s="32"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="29"/>
+      <c r="C84" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="33"/>
+      <c r="E84" s="32"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="34"/>
+      <c r="C85" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="36"/>
+      <c r="E85" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C57:E57"/>
+  <mergeCells count="7">
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C51:E51"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C32:E32"/>
@@ -1644,687 +2029,1159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D709E86-0D6B-AC42-9641-378B1FC946F1}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="142" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="30.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="25" customWidth="1"/>
+    <col min="7" max="7" width="19" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="21"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="21"/>
+      <c r="F2" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="21"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="21"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="21"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="21"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="21"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="21"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="21"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="21"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="21"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="21"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="21"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="21"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="21"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="21"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="21"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="21"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="21"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="21"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="21"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="21"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="21"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="21"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="21"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="21"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="21"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="21"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="21"/>
+      <c r="B29" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="21"/>
+      <c r="D29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="18"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="17"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="16"/>
+      <c r="B30" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="17"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="16"/>
+      <c r="B31" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="21"/>
+      <c r="B32" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="16"/>
+      <c r="D32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="16"/>
+      <c r="B33" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="12" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="16"/>
+      <c r="A34" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="12" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="16"/>
+      <c r="A35" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="17"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="16"/>
+      <c r="B36" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="21"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="7"/>
+      <c r="B37" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="21"/>
+      <c r="B38" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="21"/>
+      <c r="D38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="21"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="7"/>
+      <c r="B39" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="21"/>
+      <c r="B40" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="21"/>
+      <c r="D40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="21"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="7"/>
+      <c r="B41" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="21"/>
+      <c r="B42" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="C42" s="5"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="21"/>
+      <c r="D42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="21"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="21"/>
+      <c r="B43" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="21"/>
+      <c r="B44" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="21"/>
+      <c r="D44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="21"/>
+      <c r="B45" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="21"/>
+      <c r="D45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="21"/>
+      <c r="B46" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="21"/>
+      <c r="D46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="21"/>
+      <c r="B47" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="21"/>
+      <c r="D47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="21"/>
+      <c r="B48" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="21"/>
+      <c r="D48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="18"/>
       <c r="G48" s="7"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="21"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="21"/>
+      <c r="B49" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="21"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="7"/>
+      <c r="B50" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="21"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="7"/>
+      <c r="B51" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="21"/>
+      <c r="B52" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="21"/>
+      <c r="D52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="21"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="7"/>
+      <c r="B53" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="21"/>
+      <c r="B54" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="21"/>
+      <c r="D54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="21"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="7"/>
+      <c r="B55" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="21"/>
+      <c r="B56" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="21"/>
+      <c r="D56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="21"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="5"/>
       <c r="D57" s="3"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="21"/>
+      <c r="F57" s="16"/>
       <c r="G57" s="7"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="21"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="5"/>
       <c r="D58" s="3"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="21"/>
+      <c r="F58" s="16"/>
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="21"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="5"/>
       <c r="D59" s="3"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="21"/>
+      <c r="F59" s="16"/>
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="21"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="5"/>
       <c r="D60" s="3"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="21"/>
+      <c r="F60" s="16"/>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="21"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="5"/>
       <c r="D61" s="3"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="21"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="7"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="21"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="5"/>
       <c r="D62" s="3"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="21"/>
+      <c r="F62" s="16"/>
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="21"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="5"/>
       <c r="D63" s="3"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="21"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="21"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="5"/>
       <c r="D64" s="3"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="21"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="21"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="5"/>
       <c r="D65" s="3"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="21"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="7"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="21"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="21"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="16"/>
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="21"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="5"/>
       <c r="D67" s="3"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="21"/>
+      <c r="F67" s="16"/>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="21"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="5"/>
       <c r="D68" s="3"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="21"/>
+      <c r="F68" s="16"/>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="21"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="21"/>
+      <c r="F69" s="16"/>
       <c r="G69" s="7"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="21"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="21"/>
+      <c r="F70" s="16"/>
       <c r="G70" s="7"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="21"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="5"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="21"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="16"/>
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="21"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="5"/>
       <c r="D72" s="3"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="21"/>
+      <c r="F72" s="16"/>
       <c r="G72" s="7"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73" s="21"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="5"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="21"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="16"/>
       <c r="G73" s="7"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="21"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="5"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="21"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="16"/>
       <c r="G74" s="7"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="21"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="5"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="21"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="16"/>
       <c r="G75" s="7"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="21"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="5"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="21"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="16"/>
       <c r="G76" s="7"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="21"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="5"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="21"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="7"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="21"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="5"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="21"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="16"/>
       <c r="G78" s="7"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="21"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="5"/>
       <c r="D79" s="3"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="21"/>
+      <c r="F79" s="16"/>
       <c r="G79" s="7"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B80" s="21"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="5"/>
       <c r="D80" s="3"/>
       <c r="E80" s="7"/>
-      <c r="F80" s="21"/>
+      <c r="F80" s="16"/>
       <c r="G80" s="7"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81" s="21"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="5"/>
       <c r="D81" s="3"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="21"/>
+      <c r="F81" s="16"/>
       <c r="G81" s="7"/>
     </row>
   </sheetData>
